--- a/SchedulingData/dynamic11/pso/scheduling2_6.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>218.78</v>
+        <v>250.16</v>
       </c>
       <c r="D2" t="n">
-        <v>261.76</v>
+        <v>302.08</v>
       </c>
       <c r="E2" t="n">
-        <v>14.344</v>
+        <v>11.912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>208.64</v>
+        <v>302.08</v>
       </c>
       <c r="D3" t="n">
-        <v>265.04</v>
+        <v>385.38</v>
       </c>
       <c r="E3" t="n">
-        <v>10.216</v>
+        <v>8.672000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>200.22</v>
+        <v>235.52</v>
       </c>
       <c r="D4" t="n">
-        <v>237.44</v>
+        <v>289.8</v>
       </c>
       <c r="E4" t="n">
-        <v>12.456</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>237.44</v>
+        <v>250.72</v>
       </c>
       <c r="D5" t="n">
-        <v>278.34</v>
+        <v>328.78</v>
       </c>
       <c r="E5" t="n">
-        <v>9.496</v>
+        <v>10.252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>241.58</v>
+        <v>260.26</v>
       </c>
       <c r="D6" t="n">
-        <v>282.64</v>
+        <v>315.76</v>
       </c>
       <c r="E6" t="n">
-        <v>13.896</v>
+        <v>11.224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>293.28</v>
+        <v>246.68</v>
       </c>
       <c r="D7" t="n">
-        <v>369.88</v>
+        <v>293.7</v>
       </c>
       <c r="E7" t="n">
-        <v>10.592</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>278.34</v>
+        <v>293.7</v>
       </c>
       <c r="D8" t="n">
-        <v>325.08</v>
+        <v>320.9</v>
       </c>
       <c r="E8" t="n">
-        <v>6.952</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="9">
@@ -599,283 +599,283 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>325.08</v>
+        <v>207.98</v>
       </c>
       <c r="D9" t="n">
-        <v>370.14</v>
+        <v>280.58</v>
       </c>
       <c r="E9" t="n">
-        <v>4.576</v>
+        <v>11.112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>207.62</v>
+        <v>385.38</v>
       </c>
       <c r="D10" t="n">
-        <v>247.58</v>
+        <v>425.28</v>
       </c>
       <c r="E10" t="n">
-        <v>15.792</v>
+        <v>5.812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>370.14</v>
+        <v>315.76</v>
       </c>
       <c r="D11" t="n">
-        <v>414.1</v>
+        <v>399.26</v>
       </c>
       <c r="E11" t="n">
-        <v>1.82</v>
+        <v>7.984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>414.1</v>
+        <v>328.78</v>
       </c>
       <c r="D12" t="n">
-        <v>497.16</v>
+        <v>376.28</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>7.612</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>247.58</v>
+        <v>289.8</v>
       </c>
       <c r="D13" t="n">
-        <v>330.12</v>
+        <v>332.5</v>
       </c>
       <c r="E13" t="n">
-        <v>13.108</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>369.88</v>
+        <v>376.28</v>
       </c>
       <c r="D14" t="n">
-        <v>404.88</v>
+        <v>423.48</v>
       </c>
       <c r="E14" t="n">
-        <v>7.732</v>
+        <v>4.532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>261.76</v>
+        <v>280.58</v>
       </c>
       <c r="D15" t="n">
-        <v>306.76</v>
+        <v>339.36</v>
       </c>
       <c r="E15" t="n">
-        <v>11.484</v>
+        <v>8.824</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>404.88</v>
+        <v>399.26</v>
       </c>
       <c r="D16" t="n">
-        <v>439.16</v>
+        <v>437.4</v>
       </c>
       <c r="E16" t="n">
-        <v>5.444</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>330.12</v>
+        <v>423.48</v>
       </c>
       <c r="D17" t="n">
-        <v>372.22</v>
+        <v>462.22</v>
       </c>
       <c r="E17" t="n">
-        <v>11.028</v>
+        <v>2.288</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>265.04</v>
+        <v>339.36</v>
       </c>
       <c r="D18" t="n">
-        <v>310</v>
+        <v>403.56</v>
       </c>
       <c r="E18" t="n">
-        <v>7.84</v>
+        <v>5.524</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>372.22</v>
+        <v>332.5</v>
       </c>
       <c r="D19" t="n">
-        <v>435.96</v>
+        <v>365.5</v>
       </c>
       <c r="E19" t="n">
-        <v>7.284</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>439.16</v>
+        <v>462.22</v>
       </c>
       <c r="D20" t="n">
-        <v>483.44</v>
+        <v>549.14</v>
       </c>
       <c r="E20" t="n">
-        <v>2.636</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>306.76</v>
+        <v>549.14</v>
       </c>
       <c r="D21" t="n">
-        <v>381.02</v>
+        <v>606.66</v>
       </c>
       <c r="E21" t="n">
-        <v>7.168</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>483.44</v>
+        <v>365.5</v>
       </c>
       <c r="D22" t="n">
-        <v>526.14</v>
+        <v>449.28</v>
       </c>
       <c r="E22" t="n">
-        <v>0.476</v>
+        <v>5.012</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>526.14</v>
+        <v>320.9</v>
       </c>
       <c r="D23" t="n">
-        <v>626.49</v>
+        <v>378.38</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="24">
@@ -884,74 +884,74 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>381.02</v>
+        <v>449.28</v>
       </c>
       <c r="D24" t="n">
-        <v>428.02</v>
+        <v>517.54</v>
       </c>
       <c r="E24" t="n">
-        <v>4.088</v>
+        <v>2.256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>310</v>
+        <v>403.56</v>
       </c>
       <c r="D25" t="n">
-        <v>362.56</v>
+        <v>461.96</v>
       </c>
       <c r="E25" t="n">
-        <v>4.704</v>
+        <v>2.284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>497.16</v>
+        <v>378.38</v>
       </c>
       <c r="D26" t="n">
-        <v>566.02</v>
+        <v>421.04</v>
       </c>
       <c r="E26" t="n">
-        <v>27.244</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>428.02</v>
+        <v>421.04</v>
       </c>
       <c r="D27" t="n">
-        <v>485.42</v>
+        <v>517.17</v>
       </c>
       <c r="E27" t="n">
-        <v>1.928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -960,14 +960,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>485.42</v>
+        <v>517.54</v>
       </c>
       <c r="D28" t="n">
-        <v>592.86</v>
+        <v>614.33</v>
       </c>
       <c r="E28" t="n">
         <v>30</v>
@@ -975,121 +975,121 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>282.64</v>
+        <v>614.33</v>
       </c>
       <c r="D29" t="n">
-        <v>351.14</v>
+        <v>672.03</v>
       </c>
       <c r="E29" t="n">
-        <v>10.656</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>626.49</v>
+        <v>517.17</v>
       </c>
       <c r="D30" t="n">
-        <v>703.71</v>
+        <v>571.4299999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>27.408</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>362.56</v>
+        <v>461.96</v>
       </c>
       <c r="D31" t="n">
-        <v>417.16</v>
+        <v>524.39</v>
       </c>
       <c r="E31" t="n">
-        <v>1.844</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>417.16</v>
+        <v>524.39</v>
       </c>
       <c r="D32" t="n">
-        <v>490.27</v>
+        <v>584.17</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>490.27</v>
+        <v>425.28</v>
       </c>
       <c r="D33" t="n">
-        <v>549.5700000000001</v>
+        <v>481.92</v>
       </c>
       <c r="E33" t="n">
-        <v>26.76</v>
+        <v>3.268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>435.96</v>
+        <v>584.17</v>
       </c>
       <c r="D34" t="n">
-        <v>494.56</v>
+        <v>624.33</v>
       </c>
       <c r="E34" t="n">
-        <v>4.044</v>
+        <v>24.816</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1097,184 +1097,108 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>549.5700000000001</v>
+        <v>481.92</v>
       </c>
       <c r="D35" t="n">
-        <v>582.17</v>
+        <v>524.22</v>
       </c>
       <c r="E35" t="n">
-        <v>24.64</v>
+        <v>1.148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>592.86</v>
+        <v>524.22</v>
       </c>
       <c r="D36" t="n">
-        <v>651.8</v>
+        <v>593.8200000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>27.756</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>494.56</v>
+        <v>571.4299999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>553.74</v>
+        <v>606.49</v>
       </c>
       <c r="E37" t="n">
-        <v>1.236</v>
+        <v>24.868</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>553.74</v>
+        <v>593.8200000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>642.97</v>
+        <v>658.88</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>351.14</v>
+        <v>624.33</v>
       </c>
       <c r="D39" t="n">
-        <v>408.84</v>
+        <v>661.33</v>
       </c>
       <c r="E39" t="n">
-        <v>8.016</v>
+        <v>22.736</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>566.02</v>
+        <v>606.66</v>
       </c>
       <c r="D40" t="n">
-        <v>620.12</v>
+        <v>656.46</v>
       </c>
       <c r="E40" t="n">
-        <v>23.944</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>pond54</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>703.71</v>
-      </c>
-      <c r="D41" t="n">
-        <v>760.53</v>
-      </c>
-      <c r="E41" t="n">
-        <v>24.816</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>6</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>pond4</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>408.84</v>
-      </c>
-      <c r="D42" t="n">
-        <v>474.24</v>
-      </c>
-      <c r="E42" t="n">
-        <v>5.596</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond40</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>582.17</v>
-      </c>
-      <c r="D43" t="n">
-        <v>621.55</v>
-      </c>
-      <c r="E43" t="n">
-        <v>21.832</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>4</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond57</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>651.8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>693.8</v>
-      </c>
-      <c r="E44" t="n">
-        <v>25.676</v>
+        <v>24.548</v>
       </c>
     </row>
   </sheetData>
